--- a/Documentation/Parts.xlsx
+++ b/Documentation/Parts.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\Armachat\Armachat-circuitpython\Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{130B10B1-E3DD-444D-8A5A-449F3055A1A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5922E080-82BD-4BED-9DDF-078F4AD0868C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="5" xr2:uid="{804B02E0-43F0-4DAF-86C6-ACAAAC73CD2E}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="1" xr2:uid="{804B02E0-43F0-4DAF-86C6-ACAAAC73CD2E}"/>
   </bookViews>
   <sheets>
     <sheet name="BOM" sheetId="2" r:id="rId1"/>
@@ -2139,9 +2139,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F5A7D34E-826C-4418-8C3E-1310E1F500AE}">
   <dimension ref="A1:F41"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D11" sqref="D11"/>
+      <selection pane="bottomLeft" activeCell="B35" sqref="B35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4355,7 +4355,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5A7B195-9A8E-4431-8B4B-D79010CDB109}">
   <dimension ref="A1:P5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>

--- a/Documentation/Parts.xlsx
+++ b/Documentation/Parts.xlsx
@@ -8,17 +8,18 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\Armachat\Armachat-circuitpython\Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5922E080-82BD-4BED-9DDF-078F4AD0868C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F77B3A13-88C3-4369-8B2C-3FB60BE0C26A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="1" xr2:uid="{804B02E0-43F0-4DAF-86C6-ACAAAC73CD2E}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="4" xr2:uid="{804B02E0-43F0-4DAF-86C6-ACAAAC73CD2E}"/>
   </bookViews>
   <sheets>
     <sheet name="BOM" sheetId="2" r:id="rId1"/>
     <sheet name="Pico GPIO" sheetId="3" r:id="rId2"/>
     <sheet name="Keypad" sheetId="4" r:id="rId3"/>
     <sheet name="Keypad (Col, Row)" sheetId="6" r:id="rId4"/>
-    <sheet name="Screens and Keys" sheetId="5" r:id="rId5"/>
-    <sheet name="Messages" sheetId="7" r:id="rId6"/>
+    <sheet name="Keypad (Col, Row) (2)" sheetId="8" r:id="rId5"/>
+    <sheet name="Screens and Keys" sheetId="5" r:id="rId6"/>
+    <sheet name="Messages" sheetId="7" r:id="rId7"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">BOM!$A$1:$J$27</definedName>
@@ -41,8 +42,30 @@
 </workbook>
 </file>
 
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+  <metadataTypes count="1">
+    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLDAPR" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <cellMetadata count="1">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+  </cellMetadata>
+</metadata>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="456" uniqueCount="245">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="765" uniqueCount="286">
   <si>
     <t>Description</t>
   </si>
@@ -777,6 +800,189 @@
   </si>
   <si>
     <t>packet_text</t>
+  </si>
+  <si>
+    <t>keys1</t>
+  </si>
+  <si>
+    <t>q</t>
+  </si>
+  <si>
+    <t>w</t>
+  </si>
+  <si>
+    <t>e</t>
+  </si>
+  <si>
+    <t>r</t>
+  </si>
+  <si>
+    <t>t</t>
+  </si>
+  <si>
+    <t>y</t>
+  </si>
+  <si>
+    <t>u</t>
+  </si>
+  <si>
+    <t>i</t>
+  </si>
+  <si>
+    <t>o</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>bsp</t>
+  </si>
+  <si>
+    <t>l</t>
+  </si>
+  <si>
+    <t>k</t>
+  </si>
+  <si>
+    <t>j</t>
+  </si>
+  <si>
+    <t>h</t>
+  </si>
+  <si>
+    <t>g</t>
+  </si>
+  <si>
+    <t>f</t>
+  </si>
+  <si>
+    <t>d</t>
+  </si>
+  <si>
+    <t>s</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>alt</t>
+  </si>
+  <si>
+    <t>z</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>c</t>
+  </si>
+  <si>
+    <t>v</t>
+  </si>
+  <si>
+    <t>b</t>
+  </si>
+  <si>
+    <t>n</t>
+  </si>
+  <si>
+    <t>m</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>ent</t>
+  </si>
+  <si>
+    <t>keys2</t>
+  </si>
+  <si>
+    <t>lt</t>
+  </si>
+  <si>
+    <t>rt</t>
+  </si>
+  <si>
+    <t>keys3</t>
+  </si>
+  <si>
+    <t>up</t>
+  </si>
+  <si>
+    <t>dn</t>
+  </si>
+  <si>
+    <t>,</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>˅</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Row/Col˃</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>˂</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Col/Row˅</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>˄</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Row/Col˃</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -786,7 +992,7 @@
   <numFmts count="1">
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -816,6 +1022,13 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="10">
@@ -920,7 +1133,7 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -995,6 +1208,17 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -2139,7 +2363,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F5A7D34E-826C-4418-8C3E-1310E1F500AE}">
   <dimension ref="A1:F41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="B35" sqref="B35"/>
     </sheetView>
@@ -3226,10 +3450,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{79560918-82E4-46AF-B408-379D6C110666}">
-  <dimension ref="A1:U19"/>
+  <dimension ref="A1:U53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+      <selection activeCell="B46" sqref="B46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3254,30 +3478,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A1" s="37" t="s">
+      <c r="A1" s="38" t="s">
         <v>222</v>
       </c>
-      <c r="B1" s="37"/>
-      <c r="C1" s="37"/>
-      <c r="D1" s="37"/>
-      <c r="E1" s="37"/>
-      <c r="F1" s="37"/>
-      <c r="G1" s="37"/>
-      <c r="H1" s="37"/>
-      <c r="I1" s="37"/>
-      <c r="J1" s="37"/>
-      <c r="L1" s="37" t="s">
+      <c r="B1" s="38"/>
+      <c r="C1" s="38"/>
+      <c r="D1" s="38"/>
+      <c r="E1" s="38"/>
+      <c r="F1" s="38"/>
+      <c r="G1" s="38"/>
+      <c r="H1" s="38"/>
+      <c r="I1" s="38"/>
+      <c r="J1" s="38"/>
+      <c r="L1" s="38" t="s">
         <v>222</v>
       </c>
-      <c r="M1" s="37"/>
-      <c r="N1" s="37"/>
-      <c r="O1" s="37"/>
-      <c r="P1" s="37"/>
-      <c r="Q1" s="37"/>
-      <c r="R1" s="37"/>
-      <c r="S1" s="37"/>
-      <c r="T1" s="37"/>
-      <c r="U1" s="37"/>
+      <c r="M1" s="38"/>
+      <c r="N1" s="38"/>
+      <c r="O1" s="38"/>
+      <c r="P1" s="38"/>
+      <c r="Q1" s="38"/>
+      <c r="R1" s="38"/>
+      <c r="S1" s="38"/>
+      <c r="T1" s="38"/>
+      <c r="U1" s="38"/>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A2" s="21" t="s">
@@ -3466,30 +3690,30 @@
       </c>
     </row>
     <row r="6" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A6" s="37" t="s">
+      <c r="A6" s="38" t="s">
         <v>221</v>
       </c>
-      <c r="B6" s="37"/>
-      <c r="C6" s="37"/>
-      <c r="D6" s="37"/>
-      <c r="E6" s="37"/>
-      <c r="F6" s="37"/>
-      <c r="G6" s="37"/>
-      <c r="H6" s="37"/>
-      <c r="I6" s="37"/>
-      <c r="J6" s="37"/>
-      <c r="L6" s="37" t="s">
+      <c r="B6" s="38"/>
+      <c r="C6" s="38"/>
+      <c r="D6" s="38"/>
+      <c r="E6" s="38"/>
+      <c r="F6" s="38"/>
+      <c r="G6" s="38"/>
+      <c r="H6" s="38"/>
+      <c r="I6" s="38"/>
+      <c r="J6" s="38"/>
+      <c r="L6" s="38" t="s">
         <v>221</v>
       </c>
-      <c r="M6" s="37"/>
-      <c r="N6" s="37"/>
-      <c r="O6" s="37"/>
-      <c r="P6" s="37"/>
-      <c r="Q6" s="37"/>
-      <c r="R6" s="37"/>
-      <c r="S6" s="37"/>
-      <c r="T6" s="37"/>
-      <c r="U6" s="37"/>
+      <c r="M6" s="38"/>
+      <c r="N6" s="38"/>
+      <c r="O6" s="38"/>
+      <c r="P6" s="38"/>
+      <c r="Q6" s="38"/>
+      <c r="R6" s="38"/>
+      <c r="S6" s="38"/>
+      <c r="T6" s="38"/>
+      <c r="U6" s="38"/>
     </row>
     <row r="7" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A7" s="24">
@@ -3690,30 +3914,30 @@
       <c r="U10" s="17"/>
     </row>
     <row r="11" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A11" s="37" t="s">
+      <c r="A11" s="38" t="s">
         <v>220</v>
       </c>
-      <c r="B11" s="37"/>
-      <c r="C11" s="37"/>
-      <c r="D11" s="37"/>
-      <c r="E11" s="37"/>
-      <c r="F11" s="37"/>
-      <c r="G11" s="37"/>
-      <c r="H11" s="37"/>
-      <c r="I11" s="37"/>
-      <c r="J11" s="37"/>
-      <c r="L11" s="37" t="s">
+      <c r="B11" s="38"/>
+      <c r="C11" s="38"/>
+      <c r="D11" s="38"/>
+      <c r="E11" s="38"/>
+      <c r="F11" s="38"/>
+      <c r="G11" s="38"/>
+      <c r="H11" s="38"/>
+      <c r="I11" s="38"/>
+      <c r="J11" s="38"/>
+      <c r="L11" s="38" t="s">
         <v>220</v>
       </c>
-      <c r="M11" s="37"/>
-      <c r="N11" s="37"/>
-      <c r="O11" s="37"/>
-      <c r="P11" s="37"/>
-      <c r="Q11" s="37"/>
-      <c r="R11" s="37"/>
-      <c r="S11" s="37"/>
-      <c r="T11" s="37"/>
-      <c r="U11" s="37"/>
+      <c r="M11" s="38"/>
+      <c r="N11" s="38"/>
+      <c r="O11" s="38"/>
+      <c r="P11" s="38"/>
+      <c r="Q11" s="38"/>
+      <c r="R11" s="38"/>
+      <c r="S11" s="38"/>
+      <c r="T11" s="38"/>
+      <c r="U11" s="38"/>
     </row>
     <row r="12" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A12" s="29">
@@ -3902,30 +4126,30 @@
       </c>
     </row>
     <row r="16" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A16" s="37" t="s">
+      <c r="A16" s="38" t="s">
         <v>219</v>
       </c>
-      <c r="B16" s="37"/>
-      <c r="C16" s="37"/>
-      <c r="D16" s="37"/>
-      <c r="E16" s="37"/>
-      <c r="F16" s="37"/>
-      <c r="G16" s="37"/>
-      <c r="H16" s="37"/>
-      <c r="I16" s="37"/>
-      <c r="J16" s="37"/>
-      <c r="L16" s="37" t="s">
+      <c r="B16" s="38"/>
+      <c r="C16" s="38"/>
+      <c r="D16" s="38"/>
+      <c r="E16" s="38"/>
+      <c r="F16" s="38"/>
+      <c r="G16" s="38"/>
+      <c r="H16" s="38"/>
+      <c r="I16" s="38"/>
+      <c r="J16" s="38"/>
+      <c r="L16" s="38" t="s">
         <v>223</v>
       </c>
-      <c r="M16" s="37"/>
-      <c r="N16" s="37"/>
-      <c r="O16" s="37"/>
-      <c r="P16" s="37"/>
-      <c r="Q16" s="37"/>
-      <c r="R16" s="37"/>
-      <c r="S16" s="37"/>
-      <c r="T16" s="37"/>
-      <c r="U16" s="37"/>
+      <c r="M16" s="38"/>
+      <c r="N16" s="38"/>
+      <c r="O16" s="38"/>
+      <c r="P16" s="38"/>
+      <c r="Q16" s="38"/>
+      <c r="R16" s="38"/>
+      <c r="S16" s="38"/>
+      <c r="T16" s="38"/>
+      <c r="U16" s="38"/>
     </row>
     <row r="17" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A17" s="21" t="str">
@@ -4171,6 +4395,655 @@
       <c r="U19" s="21" t="str">
         <f t="shared" si="5"/>
         <v>ENT (GP1, GP6)</v>
+      </c>
+    </row>
+    <row r="21" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="22" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>246</v>
+      </c>
+      <c r="B22" t="s">
+        <v>247</v>
+      </c>
+      <c r="C22" t="s">
+        <v>248</v>
+      </c>
+      <c r="D22" t="s">
+        <v>249</v>
+      </c>
+      <c r="E22" t="s">
+        <v>250</v>
+      </c>
+      <c r="F22" t="s">
+        <v>251</v>
+      </c>
+      <c r="G22" t="s">
+        <v>252</v>
+      </c>
+      <c r="H22" t="s">
+        <v>253</v>
+      </c>
+      <c r="I22" t="s">
+        <v>254</v>
+      </c>
+      <c r="J22" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="23" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>265</v>
+      </c>
+      <c r="B23" t="s">
+        <v>264</v>
+      </c>
+      <c r="C23" t="s">
+        <v>263</v>
+      </c>
+      <c r="D23" t="s">
+        <v>262</v>
+      </c>
+      <c r="E23" t="s">
+        <v>261</v>
+      </c>
+      <c r="F23" t="s">
+        <v>260</v>
+      </c>
+      <c r="G23" t="s">
+        <v>259</v>
+      </c>
+      <c r="H23" t="s">
+        <v>258</v>
+      </c>
+      <c r="I23" t="s">
+        <v>257</v>
+      </c>
+      <c r="J23" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="24" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>266</v>
+      </c>
+      <c r="B24" t="s">
+        <v>267</v>
+      </c>
+      <c r="C24" t="s">
+        <v>268</v>
+      </c>
+      <c r="D24" t="s">
+        <v>269</v>
+      </c>
+      <c r="E24" t="s">
+        <v>270</v>
+      </c>
+      <c r="F24" t="s">
+        <v>271</v>
+      </c>
+      <c r="G24" t="s">
+        <v>272</v>
+      </c>
+      <c r="H24" t="s">
+        <v>273</v>
+      </c>
+      <c r="I24" t="s">
+        <v>274</v>
+      </c>
+      <c r="J24" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="26" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="27" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>1</v>
+      </c>
+      <c r="B27">
+        <v>2</v>
+      </c>
+      <c r="C27">
+        <v>3</v>
+      </c>
+      <c r="D27">
+        <v>4</v>
+      </c>
+      <c r="E27">
+        <v>5</v>
+      </c>
+      <c r="F27">
+        <v>6</v>
+      </c>
+      <c r="G27">
+        <v>7</v>
+      </c>
+      <c r="H27">
+        <v>8</v>
+      </c>
+      <c r="I27">
+        <v>9</v>
+      </c>
+      <c r="J27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>181</v>
+      </c>
+      <c r="B28" s="39" t="s">
+        <v>182</v>
+      </c>
+      <c r="C28" t="s">
+        <v>183</v>
+      </c>
+      <c r="D28" t="s">
+        <v>184</v>
+      </c>
+      <c r="E28" t="s">
+        <v>185</v>
+      </c>
+      <c r="F28" s="39" t="s">
+        <v>146</v>
+      </c>
+      <c r="G28" t="s">
+        <v>186</v>
+      </c>
+      <c r="H28" t="s">
+        <v>187</v>
+      </c>
+      <c r="I28" s="39" t="s">
+        <v>188</v>
+      </c>
+      <c r="J28" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="29" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>266</v>
+      </c>
+      <c r="B29" t="s">
+        <v>191</v>
+      </c>
+      <c r="C29" t="s">
+        <v>192</v>
+      </c>
+      <c r="D29" t="s">
+        <v>193</v>
+      </c>
+      <c r="E29" s="39" t="s">
+        <v>197</v>
+      </c>
+      <c r="F29" t="s">
+        <v>194</v>
+      </c>
+      <c r="G29" t="s">
+        <v>195</v>
+      </c>
+      <c r="H29" t="s">
+        <v>196</v>
+      </c>
+      <c r="I29" t="s">
+        <v>198</v>
+      </c>
+      <c r="J29" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="31" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="32" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>151</v>
+      </c>
+      <c r="B32" t="s">
+        <v>152</v>
+      </c>
+      <c r="C32" t="s">
+        <v>153</v>
+      </c>
+      <c r="D32" t="s">
+        <v>154</v>
+      </c>
+      <c r="E32" t="s">
+        <v>155</v>
+      </c>
+      <c r="F32" t="s">
+        <v>156</v>
+      </c>
+      <c r="G32" t="s">
+        <v>157</v>
+      </c>
+      <c r="H32" t="s">
+        <v>158</v>
+      </c>
+      <c r="I32" t="s">
+        <v>159</v>
+      </c>
+      <c r="J32" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>161</v>
+      </c>
+      <c r="B33" t="s">
+        <v>162</v>
+      </c>
+      <c r="C33" t="s">
+        <v>163</v>
+      </c>
+      <c r="D33" t="s">
+        <v>164</v>
+      </c>
+      <c r="E33" t="s">
+        <v>165</v>
+      </c>
+      <c r="F33" t="s">
+        <v>166</v>
+      </c>
+      <c r="G33" t="s">
+        <v>167</v>
+      </c>
+      <c r="H33" t="s">
+        <v>168</v>
+      </c>
+      <c r="I33" t="s">
+        <v>169</v>
+      </c>
+      <c r="J33" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>266</v>
+      </c>
+      <c r="B34" t="s">
+        <v>172</v>
+      </c>
+      <c r="C34" t="s">
+        <v>173</v>
+      </c>
+      <c r="D34" t="s">
+        <v>174</v>
+      </c>
+      <c r="E34" t="s">
+        <v>175</v>
+      </c>
+      <c r="F34" t="s">
+        <v>176</v>
+      </c>
+      <c r="G34" t="s">
+        <v>177</v>
+      </c>
+      <c r="H34" t="s">
+        <v>178</v>
+      </c>
+      <c r="I34" t="s">
+        <v>282</v>
+      </c>
+      <c r="J34" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B36" t="str">
+        <f>A21</f>
+        <v>keys1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B37">
+        <v>0</v>
+      </c>
+      <c r="C37">
+        <v>1</v>
+      </c>
+      <c r="D37">
+        <v>2</v>
+      </c>
+      <c r="E37">
+        <v>3</v>
+      </c>
+      <c r="F37">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>0</v>
+      </c>
+      <c r="B38" t="str">
+        <f>J24</f>
+        <v>ent</v>
+      </c>
+      <c r="C38" t="str">
+        <f>I24</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="D38" t="str">
+        <f>H24</f>
+        <v>m</v>
+      </c>
+      <c r="E38" t="str">
+        <f>G24</f>
+        <v>n</v>
+      </c>
+      <c r="F38" t="str">
+        <f>F24</f>
+        <v>b</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>1</v>
+      </c>
+      <c r="B39" t="str">
+        <f>J23</f>
+        <v>bsp</v>
+      </c>
+      <c r="C39" t="str">
+        <f>I23</f>
+        <v>l</v>
+      </c>
+      <c r="D39" t="str">
+        <f>H23</f>
+        <v>k</v>
+      </c>
+      <c r="E39" t="str">
+        <f>G23</f>
+        <v>j</v>
+      </c>
+      <c r="F39" t="str">
+        <f>F23</f>
+        <v>h</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>2</v>
+      </c>
+      <c r="B40" t="str">
+        <f>J22</f>
+        <v>p</v>
+      </c>
+      <c r="C40" t="str">
+        <f>I22</f>
+        <v>o</v>
+      </c>
+      <c r="D40" t="str">
+        <f>H22</f>
+        <v>i</v>
+      </c>
+      <c r="E40" t="str">
+        <f>G22</f>
+        <v>u</v>
+      </c>
+      <c r="F40" t="str">
+        <f>F22</f>
+        <v>y</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>3</v>
+      </c>
+      <c r="B41" t="str">
+        <f>A24</f>
+        <v>alt</v>
+      </c>
+      <c r="C41" t="str">
+        <f t="shared" ref="C41:F41" si="6">B24</f>
+        <v>z</v>
+      </c>
+      <c r="D41" t="str">
+        <f t="shared" si="6"/>
+        <v>x</v>
+      </c>
+      <c r="E41" t="str">
+        <f t="shared" si="6"/>
+        <v>c</v>
+      </c>
+      <c r="F41" t="str">
+        <f t="shared" si="6"/>
+        <v>v</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>4</v>
+      </c>
+      <c r="B42" t="str">
+        <f>A28</f>
+        <v>!</v>
+      </c>
+      <c r="C42" t="str">
+        <f t="shared" ref="C42:F42" si="7">B28</f>
+        <v>@</v>
+      </c>
+      <c r="D42" t="str">
+        <f t="shared" si="7"/>
+        <v>#</v>
+      </c>
+      <c r="E42" t="str">
+        <f t="shared" si="7"/>
+        <v>$</v>
+      </c>
+      <c r="F42" t="str">
+        <f t="shared" si="7"/>
+        <v>%</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>5</v>
+      </c>
+      <c r="B43">
+        <f>A27</f>
+        <v>1</v>
+      </c>
+      <c r="C43">
+        <f t="shared" ref="C43:F43" si="8">B27</f>
+        <v>2</v>
+      </c>
+      <c r="D43">
+        <f t="shared" si="8"/>
+        <v>3</v>
+      </c>
+      <c r="E43">
+        <f t="shared" si="8"/>
+        <v>4</v>
+      </c>
+      <c r="F43">
+        <f t="shared" si="8"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B46" t="str">
+        <f>A31</f>
+        <v>keys3</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B47">
+        <v>0</v>
+      </c>
+      <c r="C47">
+        <v>1</v>
+      </c>
+      <c r="D47">
+        <v>2</v>
+      </c>
+      <c r="E47">
+        <v>3</v>
+      </c>
+      <c r="F47">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>0</v>
+      </c>
+      <c r="B48" t="str">
+        <f>J34</f>
+        <v>dn</v>
+      </c>
+      <c r="C48" t="str">
+        <f>I34</f>
+        <v>,</v>
+      </c>
+      <c r="D48" t="str">
+        <f>H34</f>
+        <v>M</v>
+      </c>
+      <c r="E48" t="str">
+        <f>G34</f>
+        <v>N</v>
+      </c>
+      <c r="F48" t="str">
+        <f>F34</f>
+        <v>B</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>1</v>
+      </c>
+      <c r="B49" t="str">
+        <f>J33</f>
+        <v>up</v>
+      </c>
+      <c r="C49" t="str">
+        <f>I33</f>
+        <v>L</v>
+      </c>
+      <c r="D49" t="str">
+        <f>H33</f>
+        <v>K</v>
+      </c>
+      <c r="E49" t="str">
+        <f>G33</f>
+        <v>J</v>
+      </c>
+      <c r="F49" t="str">
+        <f>F33</f>
+        <v>H</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>2</v>
+      </c>
+      <c r="B50" t="str">
+        <f>J32</f>
+        <v>P</v>
+      </c>
+      <c r="C50" t="str">
+        <f>I32</f>
+        <v>O</v>
+      </c>
+      <c r="D50" t="str">
+        <f>H32</f>
+        <v>I</v>
+      </c>
+      <c r="E50" t="str">
+        <f>G32</f>
+        <v>U</v>
+      </c>
+      <c r="F50" t="str">
+        <f>F32</f>
+        <v>Y</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>3</v>
+      </c>
+      <c r="B51" t="str">
+        <f>A34</f>
+        <v>alt</v>
+      </c>
+      <c r="C51" t="str">
+        <f t="shared" ref="C51:F51" si="9">B34</f>
+        <v>Z</v>
+      </c>
+      <c r="D51" t="str">
+        <f t="shared" si="9"/>
+        <v>X</v>
+      </c>
+      <c r="E51" t="str">
+        <f t="shared" si="9"/>
+        <v>C</v>
+      </c>
+      <c r="F51" t="str">
+        <f t="shared" si="9"/>
+        <v>V</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <v>4</v>
+      </c>
+      <c r="B52">
+        <f>A38</f>
+        <v>0</v>
+      </c>
+      <c r="C52" t="str">
+        <f t="shared" ref="C52:F52" si="10">B38</f>
+        <v>ent</v>
+      </c>
+      <c r="D52" t="str">
+        <f t="shared" si="10"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="E52" t="str">
+        <f t="shared" si="10"/>
+        <v>m</v>
+      </c>
+      <c r="F52" t="str">
+        <f t="shared" si="10"/>
+        <v>n</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <v>5</v>
+      </c>
+      <c r="B53">
+        <f>A37</f>
+        <v>0</v>
+      </c>
+      <c r="C53">
+        <f t="shared" ref="C53:F53" si="11">B37</f>
+        <v>0</v>
+      </c>
+      <c r="D53">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="E53">
+        <f t="shared" si="11"/>
+        <v>2</v>
+      </c>
+      <c r="F53">
+        <f t="shared" si="11"/>
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -4190,6 +5063,2027 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8AA5FA4D-2B9C-453F-90D2-D167DF5358ED}">
+  <dimension ref="A1:U66"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="I40" sqref="I40"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="7.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A1" s="38" t="s">
+        <v>222</v>
+      </c>
+      <c r="B1" s="38"/>
+      <c r="C1" s="38"/>
+      <c r="D1" s="38"/>
+      <c r="E1" s="38"/>
+      <c r="F1" s="38"/>
+      <c r="G1" s="38"/>
+      <c r="H1" s="38"/>
+      <c r="I1" s="38"/>
+      <c r="J1" s="38"/>
+      <c r="L1" s="38" t="s">
+        <v>222</v>
+      </c>
+      <c r="M1" s="38"/>
+      <c r="N1" s="38"/>
+      <c r="O1" s="38"/>
+      <c r="P1" s="38"/>
+      <c r="Q1" s="38"/>
+      <c r="R1" s="38"/>
+      <c r="S1" s="38"/>
+      <c r="T1" s="38"/>
+      <c r="U1" s="38"/>
+    </row>
+    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A2" s="21" t="s">
+        <v>151</v>
+      </c>
+      <c r="B2" s="21" t="s">
+        <v>152</v>
+      </c>
+      <c r="C2" s="21" t="s">
+        <v>153</v>
+      </c>
+      <c r="D2" s="21" t="s">
+        <v>154</v>
+      </c>
+      <c r="E2" s="21" t="s">
+        <v>155</v>
+      </c>
+      <c r="F2" s="21" t="s">
+        <v>156</v>
+      </c>
+      <c r="G2" s="21" t="s">
+        <v>157</v>
+      </c>
+      <c r="H2" s="21" t="s">
+        <v>158</v>
+      </c>
+      <c r="I2" s="21" t="s">
+        <v>159</v>
+      </c>
+      <c r="J2" s="21" t="s">
+        <v>160</v>
+      </c>
+      <c r="L2" s="21" t="s">
+        <v>151</v>
+      </c>
+      <c r="M2" s="21" t="s">
+        <v>152</v>
+      </c>
+      <c r="N2" s="21" t="s">
+        <v>153</v>
+      </c>
+      <c r="O2" s="21" t="s">
+        <v>154</v>
+      </c>
+      <c r="P2" s="21" t="s">
+        <v>155</v>
+      </c>
+      <c r="Q2" s="21" t="s">
+        <v>156</v>
+      </c>
+      <c r="R2" s="21" t="s">
+        <v>157</v>
+      </c>
+      <c r="S2" s="21" t="s">
+        <v>158</v>
+      </c>
+      <c r="T2" s="21" t="s">
+        <v>159</v>
+      </c>
+      <c r="U2" s="21" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A3" s="21" t="s">
+        <v>161</v>
+      </c>
+      <c r="B3" s="21" t="s">
+        <v>162</v>
+      </c>
+      <c r="C3" s="21" t="s">
+        <v>163</v>
+      </c>
+      <c r="D3" s="21" t="s">
+        <v>164</v>
+      </c>
+      <c r="E3" s="21" t="s">
+        <v>165</v>
+      </c>
+      <c r="F3" s="21" t="s">
+        <v>166</v>
+      </c>
+      <c r="G3" s="21" t="s">
+        <v>167</v>
+      </c>
+      <c r="H3" s="21" t="s">
+        <v>168</v>
+      </c>
+      <c r="I3" s="21" t="s">
+        <v>169</v>
+      </c>
+      <c r="J3" s="21" t="s">
+        <v>170</v>
+      </c>
+      <c r="L3" s="21" t="s">
+        <v>161</v>
+      </c>
+      <c r="M3" s="21" t="s">
+        <v>162</v>
+      </c>
+      <c r="N3" s="21" t="s">
+        <v>163</v>
+      </c>
+      <c r="O3" s="21" t="s">
+        <v>164</v>
+      </c>
+      <c r="P3" s="21" t="s">
+        <v>165</v>
+      </c>
+      <c r="Q3" s="21" t="s">
+        <v>166</v>
+      </c>
+      <c r="R3" s="21" t="s">
+        <v>167</v>
+      </c>
+      <c r="S3" s="21" t="s">
+        <v>168</v>
+      </c>
+      <c r="T3" s="21" t="s">
+        <v>169</v>
+      </c>
+      <c r="U3" s="21" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A4" s="21" t="s">
+        <v>171</v>
+      </c>
+      <c r="B4" s="21" t="s">
+        <v>172</v>
+      </c>
+      <c r="C4" s="21" t="s">
+        <v>173</v>
+      </c>
+      <c r="D4" s="21" t="s">
+        <v>174</v>
+      </c>
+      <c r="E4" s="21" t="s">
+        <v>175</v>
+      </c>
+      <c r="F4" s="21" t="s">
+        <v>176</v>
+      </c>
+      <c r="G4" s="21" t="s">
+        <v>177</v>
+      </c>
+      <c r="H4" s="21" t="s">
+        <v>178</v>
+      </c>
+      <c r="I4" s="21" t="s">
+        <v>179</v>
+      </c>
+      <c r="J4" s="21" t="s">
+        <v>180</v>
+      </c>
+      <c r="L4" s="21" t="s">
+        <v>171</v>
+      </c>
+      <c r="M4" s="21" t="s">
+        <v>172</v>
+      </c>
+      <c r="N4" s="21" t="s">
+        <v>173</v>
+      </c>
+      <c r="O4" s="21" t="s">
+        <v>174</v>
+      </c>
+      <c r="P4" s="21" t="s">
+        <v>175</v>
+      </c>
+      <c r="Q4" s="21" t="s">
+        <v>176</v>
+      </c>
+      <c r="R4" s="21" t="s">
+        <v>177</v>
+      </c>
+      <c r="S4" s="21" t="s">
+        <v>178</v>
+      </c>
+      <c r="T4" s="21" t="s">
+        <v>179</v>
+      </c>
+      <c r="U4" s="21" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A6" s="38" t="s">
+        <v>221</v>
+      </c>
+      <c r="B6" s="38"/>
+      <c r="C6" s="38"/>
+      <c r="D6" s="38"/>
+      <c r="E6" s="38"/>
+      <c r="F6" s="38"/>
+      <c r="G6" s="38"/>
+      <c r="H6" s="38"/>
+      <c r="I6" s="38"/>
+      <c r="J6" s="38"/>
+      <c r="L6" s="38" t="s">
+        <v>221</v>
+      </c>
+      <c r="M6" s="38"/>
+      <c r="N6" s="38"/>
+      <c r="O6" s="38"/>
+      <c r="P6" s="38"/>
+      <c r="Q6" s="38"/>
+      <c r="R6" s="38"/>
+      <c r="S6" s="38"/>
+      <c r="T6" s="38"/>
+      <c r="U6" s="38"/>
+    </row>
+    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A7" s="24">
+        <v>0</v>
+      </c>
+      <c r="B7" s="26">
+        <v>1</v>
+      </c>
+      <c r="C7" s="28">
+        <v>2</v>
+      </c>
+      <c r="D7" s="25">
+        <v>3</v>
+      </c>
+      <c r="E7" s="27">
+        <v>4</v>
+      </c>
+      <c r="F7" s="27">
+        <v>4</v>
+      </c>
+      <c r="G7" s="25">
+        <v>3</v>
+      </c>
+      <c r="H7" s="28">
+        <v>2</v>
+      </c>
+      <c r="I7" s="26">
+        <v>1</v>
+      </c>
+      <c r="J7" s="24">
+        <v>0</v>
+      </c>
+      <c r="L7" s="30" t="s">
+        <v>84</v>
+      </c>
+      <c r="M7" s="31" t="s">
+        <v>87</v>
+      </c>
+      <c r="N7" s="32" t="s">
+        <v>88</v>
+      </c>
+      <c r="O7" s="33" t="s">
+        <v>89</v>
+      </c>
+      <c r="P7" s="34" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q7" s="34" t="s">
+        <v>90</v>
+      </c>
+      <c r="R7" s="33" t="s">
+        <v>89</v>
+      </c>
+      <c r="S7" s="32" t="s">
+        <v>88</v>
+      </c>
+      <c r="T7" s="31" t="s">
+        <v>87</v>
+      </c>
+      <c r="U7" s="30" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A8" s="24">
+        <v>0</v>
+      </c>
+      <c r="B8" s="26">
+        <v>1</v>
+      </c>
+      <c r="C8" s="28">
+        <v>2</v>
+      </c>
+      <c r="D8" s="25">
+        <v>3</v>
+      </c>
+      <c r="E8" s="27">
+        <v>4</v>
+      </c>
+      <c r="F8" s="27">
+        <v>4</v>
+      </c>
+      <c r="G8" s="25">
+        <v>3</v>
+      </c>
+      <c r="H8" s="28">
+        <v>2</v>
+      </c>
+      <c r="I8" s="26">
+        <v>1</v>
+      </c>
+      <c r="J8" s="24">
+        <v>0</v>
+      </c>
+      <c r="L8" s="30" t="s">
+        <v>84</v>
+      </c>
+      <c r="M8" s="31" t="s">
+        <v>87</v>
+      </c>
+      <c r="N8" s="32" t="s">
+        <v>88</v>
+      </c>
+      <c r="O8" s="33" t="s">
+        <v>89</v>
+      </c>
+      <c r="P8" s="34" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q8" s="34" t="s">
+        <v>90</v>
+      </c>
+      <c r="R8" s="33" t="s">
+        <v>89</v>
+      </c>
+      <c r="S8" s="32" t="s">
+        <v>88</v>
+      </c>
+      <c r="T8" s="31" t="s">
+        <v>87</v>
+      </c>
+      <c r="U8" s="30" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A9" s="24">
+        <v>0</v>
+      </c>
+      <c r="B9" s="26">
+        <v>1</v>
+      </c>
+      <c r="C9" s="28">
+        <v>2</v>
+      </c>
+      <c r="D9" s="25">
+        <v>3</v>
+      </c>
+      <c r="E9" s="27">
+        <v>4</v>
+      </c>
+      <c r="F9" s="27">
+        <v>4</v>
+      </c>
+      <c r="G9" s="25">
+        <v>3</v>
+      </c>
+      <c r="H9" s="28">
+        <v>2</v>
+      </c>
+      <c r="I9" s="26">
+        <v>1</v>
+      </c>
+      <c r="J9" s="24">
+        <v>0</v>
+      </c>
+      <c r="L9" s="30" t="s">
+        <v>84</v>
+      </c>
+      <c r="M9" s="31" t="s">
+        <v>87</v>
+      </c>
+      <c r="N9" s="32" t="s">
+        <v>88</v>
+      </c>
+      <c r="O9" s="33" t="s">
+        <v>89</v>
+      </c>
+      <c r="P9" s="34" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q9" s="34" t="s">
+        <v>90</v>
+      </c>
+      <c r="R9" s="33" t="s">
+        <v>89</v>
+      </c>
+      <c r="S9" s="32" t="s">
+        <v>88</v>
+      </c>
+      <c r="T9" s="31" t="s">
+        <v>87</v>
+      </c>
+      <c r="U9" s="30" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="L10" s="17"/>
+      <c r="M10" s="17"/>
+      <c r="N10" s="17"/>
+      <c r="O10" s="17"/>
+      <c r="P10" s="17"/>
+      <c r="Q10" s="17"/>
+      <c r="R10" s="17"/>
+      <c r="S10" s="17"/>
+      <c r="T10" s="17"/>
+      <c r="U10" s="17"/>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A11" s="38" t="s">
+        <v>220</v>
+      </c>
+      <c r="B11" s="38"/>
+      <c r="C11" s="38"/>
+      <c r="D11" s="38"/>
+      <c r="E11" s="38"/>
+      <c r="F11" s="38"/>
+      <c r="G11" s="38"/>
+      <c r="H11" s="38"/>
+      <c r="I11" s="38"/>
+      <c r="J11" s="38"/>
+      <c r="L11" s="38" t="s">
+        <v>220</v>
+      </c>
+      <c r="M11" s="38"/>
+      <c r="N11" s="38"/>
+      <c r="O11" s="38"/>
+      <c r="P11" s="38"/>
+      <c r="Q11" s="38"/>
+      <c r="R11" s="38"/>
+      <c r="S11" s="38"/>
+      <c r="T11" s="38"/>
+      <c r="U11" s="38"/>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A12" s="29">
+        <v>5</v>
+      </c>
+      <c r="B12" s="29">
+        <v>5</v>
+      </c>
+      <c r="C12" s="29">
+        <v>5</v>
+      </c>
+      <c r="D12" s="29">
+        <v>5</v>
+      </c>
+      <c r="E12" s="29">
+        <v>5</v>
+      </c>
+      <c r="F12" s="28">
+        <v>2</v>
+      </c>
+      <c r="G12" s="28">
+        <v>2</v>
+      </c>
+      <c r="H12" s="28">
+        <v>2</v>
+      </c>
+      <c r="I12" s="28">
+        <v>2</v>
+      </c>
+      <c r="J12" s="28">
+        <v>2</v>
+      </c>
+      <c r="L12" s="35" t="s">
+        <v>107</v>
+      </c>
+      <c r="M12" s="35" t="s">
+        <v>107</v>
+      </c>
+      <c r="N12" s="35" t="s">
+        <v>107</v>
+      </c>
+      <c r="O12" s="35" t="s">
+        <v>107</v>
+      </c>
+      <c r="P12" s="35" t="s">
+        <v>107</v>
+      </c>
+      <c r="Q12" s="32" t="s">
+        <v>100</v>
+      </c>
+      <c r="R12" s="32" t="s">
+        <v>100</v>
+      </c>
+      <c r="S12" s="32" t="s">
+        <v>100</v>
+      </c>
+      <c r="T12" s="32" t="s">
+        <v>100</v>
+      </c>
+      <c r="U12" s="32" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A13" s="27">
+        <v>4</v>
+      </c>
+      <c r="B13" s="27">
+        <v>4</v>
+      </c>
+      <c r="C13" s="27">
+        <v>4</v>
+      </c>
+      <c r="D13" s="27">
+        <v>4</v>
+      </c>
+      <c r="E13" s="27">
+        <v>4</v>
+      </c>
+      <c r="F13" s="26">
+        <v>1</v>
+      </c>
+      <c r="G13" s="26">
+        <v>1</v>
+      </c>
+      <c r="H13" s="26">
+        <v>1</v>
+      </c>
+      <c r="I13" s="26">
+        <v>1</v>
+      </c>
+      <c r="J13" s="26">
+        <v>1</v>
+      </c>
+      <c r="L13" s="34" t="s">
+        <v>92</v>
+      </c>
+      <c r="M13" s="34" t="s">
+        <v>92</v>
+      </c>
+      <c r="N13" s="34" t="s">
+        <v>92</v>
+      </c>
+      <c r="O13" s="34" t="s">
+        <v>92</v>
+      </c>
+      <c r="P13" s="34" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q13" s="31" t="s">
+        <v>94</v>
+      </c>
+      <c r="R13" s="31" t="s">
+        <v>94</v>
+      </c>
+      <c r="S13" s="31" t="s">
+        <v>94</v>
+      </c>
+      <c r="T13" s="31" t="s">
+        <v>94</v>
+      </c>
+      <c r="U13" s="31" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A14" s="25">
+        <v>3</v>
+      </c>
+      <c r="B14" s="25">
+        <v>3</v>
+      </c>
+      <c r="C14" s="25">
+        <v>3</v>
+      </c>
+      <c r="D14" s="25">
+        <v>3</v>
+      </c>
+      <c r="E14" s="25">
+        <v>3</v>
+      </c>
+      <c r="F14" s="24">
+        <v>0</v>
+      </c>
+      <c r="G14" s="24">
+        <v>0</v>
+      </c>
+      <c r="H14" s="24">
+        <v>0</v>
+      </c>
+      <c r="I14" s="24">
+        <v>0</v>
+      </c>
+      <c r="J14" s="24">
+        <v>0</v>
+      </c>
+      <c r="L14" s="33" t="s">
+        <v>93</v>
+      </c>
+      <c r="M14" s="33" t="s">
+        <v>93</v>
+      </c>
+      <c r="N14" s="33" t="s">
+        <v>93</v>
+      </c>
+      <c r="O14" s="33" t="s">
+        <v>93</v>
+      </c>
+      <c r="P14" s="33" t="s">
+        <v>93</v>
+      </c>
+      <c r="Q14" s="30" t="s">
+        <v>91</v>
+      </c>
+      <c r="R14" s="30" t="s">
+        <v>91</v>
+      </c>
+      <c r="S14" s="30" t="s">
+        <v>91</v>
+      </c>
+      <c r="T14" s="30" t="s">
+        <v>91</v>
+      </c>
+      <c r="U14" s="30" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A16" s="38" t="s">
+        <v>219</v>
+      </c>
+      <c r="B16" s="38"/>
+      <c r="C16" s="38"/>
+      <c r="D16" s="38"/>
+      <c r="E16" s="38"/>
+      <c r="F16" s="38"/>
+      <c r="G16" s="38"/>
+      <c r="H16" s="38"/>
+      <c r="I16" s="38"/>
+      <c r="J16" s="38"/>
+      <c r="L16" s="38" t="s">
+        <v>223</v>
+      </c>
+      <c r="M16" s="38"/>
+      <c r="N16" s="38"/>
+      <c r="O16" s="38"/>
+      <c r="P16" s="38"/>
+      <c r="Q16" s="38"/>
+      <c r="R16" s="38"/>
+      <c r="S16" s="38"/>
+      <c r="T16" s="38"/>
+      <c r="U16" s="38"/>
+    </row>
+    <row r="17" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A17" s="21" t="str">
+        <f t="shared" ref="A17:J19" si="0">A2 &amp; " (" &amp; A7 &amp; ", " &amp; A12 &amp; ")"</f>
+        <v>Q (0, 5)</v>
+      </c>
+      <c r="B17" s="21" t="str">
+        <f t="shared" si="0"/>
+        <v>W (1, 5)</v>
+      </c>
+      <c r="C17" s="21" t="str">
+        <f t="shared" si="0"/>
+        <v>E (2, 5)</v>
+      </c>
+      <c r="D17" s="21" t="str">
+        <f t="shared" si="0"/>
+        <v>R (3, 5)</v>
+      </c>
+      <c r="E17" s="21" t="str">
+        <f t="shared" si="0"/>
+        <v>T (4, 5)</v>
+      </c>
+      <c r="F17" s="21" t="str">
+        <f t="shared" si="0"/>
+        <v>Y (4, 2)</v>
+      </c>
+      <c r="G17" s="21" t="str">
+        <f t="shared" si="0"/>
+        <v>U (3, 2)</v>
+      </c>
+      <c r="H17" s="21" t="str">
+        <f t="shared" si="0"/>
+        <v>I (2, 2)</v>
+      </c>
+      <c r="I17" s="21" t="str">
+        <f t="shared" si="0"/>
+        <v>O (1, 2)</v>
+      </c>
+      <c r="J17" s="21" t="str">
+        <f t="shared" si="0"/>
+        <v>P (0, 2)</v>
+      </c>
+      <c r="L17" s="21" t="str">
+        <f t="shared" ref="L17:U19" si="1">L2 &amp; " (" &amp; L7 &amp; ", " &amp; L12 &amp; ")"</f>
+        <v>Q (GP1, GP22)</v>
+      </c>
+      <c r="M17" s="21" t="str">
+        <f t="shared" si="1"/>
+        <v>W (GP2, GP22)</v>
+      </c>
+      <c r="N17" s="21" t="str">
+        <f t="shared" si="1"/>
+        <v>E (GP3, GP22)</v>
+      </c>
+      <c r="O17" s="21" t="str">
+        <f t="shared" si="1"/>
+        <v>R (GP4, GP22)</v>
+      </c>
+      <c r="P17" s="21" t="str">
+        <f t="shared" si="1"/>
+        <v>T (GP5, GP22)</v>
+      </c>
+      <c r="Q17" s="21" t="str">
+        <f t="shared" si="1"/>
+        <v>Y (GP5, GP15)</v>
+      </c>
+      <c r="R17" s="21" t="str">
+        <f t="shared" si="1"/>
+        <v>U (GP4, GP15)</v>
+      </c>
+      <c r="S17" s="21" t="str">
+        <f t="shared" si="1"/>
+        <v>I (GP3, GP15)</v>
+      </c>
+      <c r="T17" s="21" t="str">
+        <f t="shared" si="1"/>
+        <v>O (GP2, GP15)</v>
+      </c>
+      <c r="U17" s="21" t="str">
+        <f t="shared" si="1"/>
+        <v>P (GP1, GP15)</v>
+      </c>
+    </row>
+    <row r="18" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A18" s="21" t="str">
+        <f t="shared" si="0"/>
+        <v>A (0, 4)</v>
+      </c>
+      <c r="B18" s="21" t="str">
+        <f t="shared" si="0"/>
+        <v>S (1, 4)</v>
+      </c>
+      <c r="C18" s="21" t="str">
+        <f t="shared" si="0"/>
+        <v>D (2, 4)</v>
+      </c>
+      <c r="D18" s="21" t="str">
+        <f t="shared" si="0"/>
+        <v>F (3, 4)</v>
+      </c>
+      <c r="E18" s="21" t="str">
+        <f t="shared" si="0"/>
+        <v>G (4, 4)</v>
+      </c>
+      <c r="F18" s="21" t="str">
+        <f t="shared" si="0"/>
+        <v>H (4, 1)</v>
+      </c>
+      <c r="G18" s="21" t="str">
+        <f t="shared" si="0"/>
+        <v>J (3, 1)</v>
+      </c>
+      <c r="H18" s="21" t="str">
+        <f t="shared" si="0"/>
+        <v>K (2, 1)</v>
+      </c>
+      <c r="I18" s="21" t="str">
+        <f t="shared" si="0"/>
+        <v>L (1, 1)</v>
+      </c>
+      <c r="J18" s="21" t="str">
+        <f t="shared" si="0"/>
+        <v>DEL (0, 1)</v>
+      </c>
+      <c r="L18" s="21" t="str">
+        <f t="shared" si="1"/>
+        <v>A (GP1, GP7)</v>
+      </c>
+      <c r="M18" s="21" t="str">
+        <f t="shared" si="1"/>
+        <v>S (GP2, GP7)</v>
+      </c>
+      <c r="N18" s="21" t="str">
+        <f t="shared" si="1"/>
+        <v>D (GP3, GP7)</v>
+      </c>
+      <c r="O18" s="21" t="str">
+        <f t="shared" si="1"/>
+        <v>F (GP4, GP7)</v>
+      </c>
+      <c r="P18" s="21" t="str">
+        <f t="shared" si="1"/>
+        <v>G (GP5, GP7)</v>
+      </c>
+      <c r="Q18" s="21" t="str">
+        <f t="shared" si="1"/>
+        <v>H (GP5, GP9)</v>
+      </c>
+      <c r="R18" s="21" t="str">
+        <f t="shared" si="1"/>
+        <v>J (GP4, GP9)</v>
+      </c>
+      <c r="S18" s="21" t="str">
+        <f t="shared" si="1"/>
+        <v>K (GP3, GP9)</v>
+      </c>
+      <c r="T18" s="21" t="str">
+        <f t="shared" si="1"/>
+        <v>L (GP2, GP9)</v>
+      </c>
+      <c r="U18" s="21" t="str">
+        <f t="shared" si="1"/>
+        <v>DEL (GP1, GP9)</v>
+      </c>
+    </row>
+    <row r="19" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A19" s="21" t="str">
+        <f t="shared" si="0"/>
+        <v>ALT (0, 3)</v>
+      </c>
+      <c r="B19" s="21" t="str">
+        <f t="shared" si="0"/>
+        <v>Z (1, 3)</v>
+      </c>
+      <c r="C19" s="21" t="str">
+        <f t="shared" si="0"/>
+        <v>X (2, 3)</v>
+      </c>
+      <c r="D19" s="21" t="str">
+        <f t="shared" si="0"/>
+        <v>C (3, 3)</v>
+      </c>
+      <c r="E19" s="21" t="str">
+        <f t="shared" si="0"/>
+        <v>V (4, 3)</v>
+      </c>
+      <c r="F19" s="21" t="str">
+        <f t="shared" si="0"/>
+        <v>B (4, 0)</v>
+      </c>
+      <c r="G19" s="21" t="str">
+        <f t="shared" si="0"/>
+        <v>N (3, 0)</v>
+      </c>
+      <c r="H19" s="21" t="str">
+        <f t="shared" si="0"/>
+        <v>M (2, 0)</v>
+      </c>
+      <c r="I19" s="21" t="str">
+        <f t="shared" si="0"/>
+        <v>SPC (1, 0)</v>
+      </c>
+      <c r="J19" s="21" t="str">
+        <f t="shared" si="0"/>
+        <v>ENT (0, 0)</v>
+      </c>
+      <c r="L19" s="21" t="str">
+        <f t="shared" si="1"/>
+        <v>ALT (GP1, GP8)</v>
+      </c>
+      <c r="M19" s="21" t="str">
+        <f t="shared" si="1"/>
+        <v>Z (GP2, GP8)</v>
+      </c>
+      <c r="N19" s="21" t="str">
+        <f t="shared" si="1"/>
+        <v>X (GP3, GP8)</v>
+      </c>
+      <c r="O19" s="21" t="str">
+        <f t="shared" si="1"/>
+        <v>C (GP4, GP8)</v>
+      </c>
+      <c r="P19" s="21" t="str">
+        <f t="shared" si="1"/>
+        <v>V (GP5, GP8)</v>
+      </c>
+      <c r="Q19" s="21" t="str">
+        <f t="shared" si="1"/>
+        <v>B (GP5, GP6)</v>
+      </c>
+      <c r="R19" s="21" t="str">
+        <f t="shared" si="1"/>
+        <v>N (GP4, GP6)</v>
+      </c>
+      <c r="S19" s="21" t="str">
+        <f t="shared" si="1"/>
+        <v>M (GP3, GP6)</v>
+      </c>
+      <c r="T19" s="21" t="str">
+        <f t="shared" si="1"/>
+        <v>SPC (GP2, GP6)</v>
+      </c>
+      <c r="U19" s="21" t="str">
+        <f t="shared" si="1"/>
+        <v>ENT (GP1, GP6)</v>
+      </c>
+    </row>
+    <row r="21" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="B21" s="41" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="22" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A22" s="37" t="s">
+        <v>283</v>
+      </c>
+      <c r="B22" s="40">
+        <v>0</v>
+      </c>
+      <c r="C22" s="40">
+        <v>1</v>
+      </c>
+      <c r="D22" s="40">
+        <v>2</v>
+      </c>
+      <c r="E22" s="40">
+        <v>3</v>
+      </c>
+      <c r="F22" s="40">
+        <v>4</v>
+      </c>
+      <c r="G22" s="40">
+        <v>4</v>
+      </c>
+      <c r="H22" s="40">
+        <v>3</v>
+      </c>
+      <c r="I22" s="40">
+        <v>2</v>
+      </c>
+      <c r="J22" s="40">
+        <v>1</v>
+      </c>
+      <c r="K22" s="40">
+        <v>0</v>
+      </c>
+      <c r="L22" s="37" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="23" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A23" s="40">
+        <v>5</v>
+      </c>
+      <c r="B23" s="21" t="s">
+        <v>246</v>
+      </c>
+      <c r="C23" s="21" t="s">
+        <v>247</v>
+      </c>
+      <c r="D23" s="21" t="s">
+        <v>248</v>
+      </c>
+      <c r="E23" s="21" t="s">
+        <v>249</v>
+      </c>
+      <c r="F23" s="21" t="s">
+        <v>250</v>
+      </c>
+      <c r="G23" s="21" t="s">
+        <v>251</v>
+      </c>
+      <c r="H23" s="21" t="s">
+        <v>252</v>
+      </c>
+      <c r="I23" s="21" t="s">
+        <v>253</v>
+      </c>
+      <c r="J23" s="21" t="s">
+        <v>254</v>
+      </c>
+      <c r="K23" s="21" t="s">
+        <v>255</v>
+      </c>
+      <c r="L23" s="40">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A24" s="40">
+        <v>4</v>
+      </c>
+      <c r="B24" s="21" t="s">
+        <v>265</v>
+      </c>
+      <c r="C24" s="21" t="s">
+        <v>264</v>
+      </c>
+      <c r="D24" s="21" t="s">
+        <v>263</v>
+      </c>
+      <c r="E24" s="21" t="s">
+        <v>262</v>
+      </c>
+      <c r="F24" s="21" t="s">
+        <v>261</v>
+      </c>
+      <c r="G24" s="21" t="s">
+        <v>260</v>
+      </c>
+      <c r="H24" s="21" t="s">
+        <v>259</v>
+      </c>
+      <c r="I24" s="21" t="s">
+        <v>258</v>
+      </c>
+      <c r="J24" s="21" t="s">
+        <v>257</v>
+      </c>
+      <c r="K24" s="21" t="s">
+        <v>256</v>
+      </c>
+      <c r="L24" s="40">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A25" s="40">
+        <v>3</v>
+      </c>
+      <c r="B25" s="21" t="s">
+        <v>266</v>
+      </c>
+      <c r="C25" s="21" t="s">
+        <v>267</v>
+      </c>
+      <c r="D25" s="21" t="s">
+        <v>268</v>
+      </c>
+      <c r="E25" s="21" t="s">
+        <v>269</v>
+      </c>
+      <c r="F25" s="21" t="s">
+        <v>270</v>
+      </c>
+      <c r="G25" s="21" t="s">
+        <v>271</v>
+      </c>
+      <c r="H25" s="21" t="s">
+        <v>272</v>
+      </c>
+      <c r="I25" s="21" t="s">
+        <v>273</v>
+      </c>
+      <c r="J25" s="21" t="s">
+        <v>274</v>
+      </c>
+      <c r="K25" s="21" t="s">
+        <v>275</v>
+      </c>
+      <c r="L25" s="40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="B27" s="41" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="28" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A28" s="37" t="s">
+        <v>283</v>
+      </c>
+      <c r="B28" s="40">
+        <v>0</v>
+      </c>
+      <c r="C28" s="40">
+        <v>1</v>
+      </c>
+      <c r="D28" s="40">
+        <v>2</v>
+      </c>
+      <c r="E28" s="40">
+        <v>3</v>
+      </c>
+      <c r="F28" s="40">
+        <v>4</v>
+      </c>
+      <c r="G28" s="40">
+        <v>4</v>
+      </c>
+      <c r="H28" s="40">
+        <v>3</v>
+      </c>
+      <c r="I28" s="40">
+        <v>2</v>
+      </c>
+      <c r="J28" s="40">
+        <v>1</v>
+      </c>
+      <c r="K28" s="40">
+        <v>0</v>
+      </c>
+      <c r="L28" s="37" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="29" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A29" s="40">
+        <v>5</v>
+      </c>
+      <c r="B29" s="21">
+        <v>1</v>
+      </c>
+      <c r="C29" s="21">
+        <v>2</v>
+      </c>
+      <c r="D29" s="21">
+        <v>3</v>
+      </c>
+      <c r="E29" s="21">
+        <v>4</v>
+      </c>
+      <c r="F29" s="21">
+        <v>5</v>
+      </c>
+      <c r="G29" s="21">
+        <v>6</v>
+      </c>
+      <c r="H29" s="21">
+        <v>7</v>
+      </c>
+      <c r="I29" s="21">
+        <v>8</v>
+      </c>
+      <c r="J29" s="21">
+        <v>9</v>
+      </c>
+      <c r="K29" s="21">
+        <v>0</v>
+      </c>
+      <c r="L29" s="40">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A30" s="40">
+        <v>4</v>
+      </c>
+      <c r="B30" s="21" t="s">
+        <v>181</v>
+      </c>
+      <c r="C30" s="21" t="s">
+        <v>182</v>
+      </c>
+      <c r="D30" s="21" t="s">
+        <v>183</v>
+      </c>
+      <c r="E30" s="21" t="s">
+        <v>184</v>
+      </c>
+      <c r="F30" s="21" t="s">
+        <v>185</v>
+      </c>
+      <c r="G30" s="21" t="s">
+        <v>146</v>
+      </c>
+      <c r="H30" s="21" t="s">
+        <v>186</v>
+      </c>
+      <c r="I30" s="21" t="s">
+        <v>187</v>
+      </c>
+      <c r="J30" s="21" t="s">
+        <v>188</v>
+      </c>
+      <c r="K30" s="21" t="s">
+        <v>277</v>
+      </c>
+      <c r="L30" s="40">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A31" s="40">
+        <v>3</v>
+      </c>
+      <c r="B31" s="21" t="s">
+        <v>266</v>
+      </c>
+      <c r="C31" s="21" t="s">
+        <v>191</v>
+      </c>
+      <c r="D31" s="21" t="s">
+        <v>192</v>
+      </c>
+      <c r="E31" s="21" t="s">
+        <v>193</v>
+      </c>
+      <c r="F31" s="21" t="s">
+        <v>197</v>
+      </c>
+      <c r="G31" s="21" t="s">
+        <v>194</v>
+      </c>
+      <c r="H31" s="21" t="s">
+        <v>195</v>
+      </c>
+      <c r="I31" s="21" t="s">
+        <v>196</v>
+      </c>
+      <c r="J31" s="21" t="s">
+        <v>282</v>
+      </c>
+      <c r="K31" s="21" t="s">
+        <v>278</v>
+      </c>
+      <c r="L31" s="40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B33" s="41" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A34" s="37" t="s">
+        <v>283</v>
+      </c>
+      <c r="B34" s="40">
+        <v>0</v>
+      </c>
+      <c r="C34" s="40">
+        <v>1</v>
+      </c>
+      <c r="D34" s="40">
+        <v>2</v>
+      </c>
+      <c r="E34" s="40">
+        <v>3</v>
+      </c>
+      <c r="F34" s="40">
+        <v>4</v>
+      </c>
+      <c r="G34" s="40">
+        <v>4</v>
+      </c>
+      <c r="H34" s="40">
+        <v>3</v>
+      </c>
+      <c r="I34" s="40">
+        <v>2</v>
+      </c>
+      <c r="J34" s="40">
+        <v>1</v>
+      </c>
+      <c r="K34" s="40">
+        <v>0</v>
+      </c>
+      <c r="L34" s="37" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A35" s="40">
+        <v>5</v>
+      </c>
+      <c r="B35" s="21" t="s">
+        <v>151</v>
+      </c>
+      <c r="C35" s="21" t="s">
+        <v>152</v>
+      </c>
+      <c r="D35" s="21" t="s">
+        <v>153</v>
+      </c>
+      <c r="E35" s="21" t="s">
+        <v>154</v>
+      </c>
+      <c r="F35" s="21" t="s">
+        <v>155</v>
+      </c>
+      <c r="G35" s="21" t="s">
+        <v>156</v>
+      </c>
+      <c r="H35" s="21" t="s">
+        <v>157</v>
+      </c>
+      <c r="I35" s="21" t="s">
+        <v>158</v>
+      </c>
+      <c r="J35" s="21" t="s">
+        <v>159</v>
+      </c>
+      <c r="K35" s="21" t="s">
+        <v>160</v>
+      </c>
+      <c r="L35" s="40">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A36" s="40">
+        <v>4</v>
+      </c>
+      <c r="B36" s="21" t="s">
+        <v>161</v>
+      </c>
+      <c r="C36" s="21" t="s">
+        <v>162</v>
+      </c>
+      <c r="D36" s="21" t="s">
+        <v>163</v>
+      </c>
+      <c r="E36" s="21" t="s">
+        <v>164</v>
+      </c>
+      <c r="F36" s="21" t="s">
+        <v>165</v>
+      </c>
+      <c r="G36" s="21" t="s">
+        <v>166</v>
+      </c>
+      <c r="H36" s="21" t="s">
+        <v>167</v>
+      </c>
+      <c r="I36" s="21" t="s">
+        <v>168</v>
+      </c>
+      <c r="J36" s="21" t="s">
+        <v>169</v>
+      </c>
+      <c r="K36" s="21" t="s">
+        <v>280</v>
+      </c>
+      <c r="L36" s="40">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A37" s="40">
+        <v>3</v>
+      </c>
+      <c r="B37" s="21" t="s">
+        <v>266</v>
+      </c>
+      <c r="C37" s="21" t="s">
+        <v>172</v>
+      </c>
+      <c r="D37" s="21" t="s">
+        <v>173</v>
+      </c>
+      <c r="E37" s="21" t="s">
+        <v>174</v>
+      </c>
+      <c r="F37" s="21" t="s">
+        <v>175</v>
+      </c>
+      <c r="G37" s="21" t="s">
+        <v>176</v>
+      </c>
+      <c r="H37" s="21" t="s">
+        <v>177</v>
+      </c>
+      <c r="I37" s="21" t="s">
+        <v>178</v>
+      </c>
+      <c r="J37" s="21" t="s">
+        <v>198</v>
+      </c>
+      <c r="K37" s="21" t="s">
+        <v>281</v>
+      </c>
+      <c r="L37" s="40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B39" s="41" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A40" s="40" t="s">
+        <v>283</v>
+      </c>
+      <c r="B40" s="42">
+        <v>11</v>
+      </c>
+      <c r="C40" s="42">
+        <v>10</v>
+      </c>
+      <c r="D40" s="42">
+        <v>9</v>
+      </c>
+      <c r="E40" s="42">
+        <v>8</v>
+      </c>
+      <c r="F40" s="42">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A41" s="2">
+        <v>25</v>
+      </c>
+      <c r="B41" s="21" t="str" cm="1">
+        <f t="array" aca="1" ref="B41" ca="1">INDIRECT(ADDRESS($A41,B$40))</f>
+        <v>ent</v>
+      </c>
+      <c r="C41" s="21" t="str" cm="1">
+        <f t="array" aca="1" ref="C41" ca="1">INDIRECT(ADDRESS($A41,C$40))</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="D41" s="21" t="str" cm="1">
+        <f t="array" aca="1" ref="D41" ca="1">INDIRECT(ADDRESS($A41,D$40))</f>
+        <v>m</v>
+      </c>
+      <c r="E41" s="21" t="str" cm="1">
+        <f t="array" aca="1" ref="E41" ca="1">INDIRECT(ADDRESS($A41,E$40))</f>
+        <v>n</v>
+      </c>
+      <c r="F41" s="21" t="str" cm="1">
+        <f t="array" aca="1" ref="F41" ca="1">INDIRECT(ADDRESS($A41,F$40))</f>
+        <v>b</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A42" s="2">
+        <v>24</v>
+      </c>
+      <c r="B42" s="21" t="str" cm="1">
+        <f t="array" aca="1" ref="B42" ca="1">INDIRECT(ADDRESS($A42,B$40))</f>
+        <v>bsp</v>
+      </c>
+      <c r="C42" s="21" t="str" cm="1">
+        <f t="array" aca="1" ref="C42" ca="1">INDIRECT(ADDRESS($A42,C$40))</f>
+        <v>l</v>
+      </c>
+      <c r="D42" s="21" t="str" cm="1">
+        <f t="array" aca="1" ref="D42" ca="1">INDIRECT(ADDRESS($A42,D$40))</f>
+        <v>k</v>
+      </c>
+      <c r="E42" s="21" t="str" cm="1">
+        <f t="array" aca="1" ref="E42" ca="1">INDIRECT(ADDRESS($A42,E$40))</f>
+        <v>j</v>
+      </c>
+      <c r="F42" s="21" t="str" cm="1">
+        <f t="array" aca="1" ref="F42" ca="1">INDIRECT(ADDRESS($A42,F$40))</f>
+        <v>h</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A43" s="2">
+        <v>23</v>
+      </c>
+      <c r="B43" s="21" t="str" cm="1">
+        <f t="array" aca="1" ref="B43" ca="1">INDIRECT(ADDRESS($A43,B$40))</f>
+        <v>p</v>
+      </c>
+      <c r="C43" s="21" t="str" cm="1">
+        <f t="array" aca="1" ref="C43" ca="1">INDIRECT(ADDRESS($A43,C$40))</f>
+        <v>o</v>
+      </c>
+      <c r="D43" s="21" t="str" cm="1">
+        <f t="array" aca="1" ref="D43" ca="1">INDIRECT(ADDRESS($A43,D$40))</f>
+        <v>i</v>
+      </c>
+      <c r="E43" s="21" t="str" cm="1">
+        <f t="array" aca="1" ref="E43" ca="1">INDIRECT(ADDRESS($A43,E$40))</f>
+        <v>u</v>
+      </c>
+      <c r="F43" s="21" t="str" cm="1">
+        <f t="array" aca="1" ref="F43" ca="1">INDIRECT(ADDRESS($A43,F$40))</f>
+        <v>y</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A44" s="2">
+        <v>25</v>
+      </c>
+      <c r="B44" s="21" t="str" cm="1">
+        <f t="array" aca="1" ref="B44" ca="1">INDIRECT(ADDRESS($A44,B$47))</f>
+        <v>alt</v>
+      </c>
+      <c r="C44" s="21" t="str" cm="1">
+        <f t="array" aca="1" ref="C44" ca="1">INDIRECT(ADDRESS($A44,C$47))</f>
+        <v>z</v>
+      </c>
+      <c r="D44" s="21" t="str" cm="1">
+        <f t="array" aca="1" ref="D44" ca="1">INDIRECT(ADDRESS($A44,D$47))</f>
+        <v>x</v>
+      </c>
+      <c r="E44" s="21" t="str" cm="1">
+        <f t="array" aca="1" ref="E44" ca="1">INDIRECT(ADDRESS($A44,E$47))</f>
+        <v>c</v>
+      </c>
+      <c r="F44" s="21" t="str" cm="1">
+        <f t="array" aca="1" ref="F44" ca="1">INDIRECT(ADDRESS($A44,F$47))</f>
+        <v>v</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A45" s="2">
+        <v>24</v>
+      </c>
+      <c r="B45" s="21" t="str" cm="1">
+        <f t="array" aca="1" ref="B45" ca="1">INDIRECT(ADDRESS($A45,B$47))</f>
+        <v>a</v>
+      </c>
+      <c r="C45" s="21" t="str" cm="1">
+        <f t="array" aca="1" ref="C45" ca="1">INDIRECT(ADDRESS($A45,C$47))</f>
+        <v>s</v>
+      </c>
+      <c r="D45" s="21" t="str" cm="1">
+        <f t="array" aca="1" ref="D45" ca="1">INDIRECT(ADDRESS($A45,D$47))</f>
+        <v>d</v>
+      </c>
+      <c r="E45" s="21" t="str" cm="1">
+        <f t="array" aca="1" ref="E45" ca="1">INDIRECT(ADDRESS($A45,E$47))</f>
+        <v>f</v>
+      </c>
+      <c r="F45" s="21" t="str" cm="1">
+        <f t="array" aca="1" ref="F45" ca="1">INDIRECT(ADDRESS($A45,F$47))</f>
+        <v>g</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A46" s="2">
+        <v>23</v>
+      </c>
+      <c r="B46" s="21" t="str" cm="1">
+        <f t="array" aca="1" ref="B46" ca="1">INDIRECT(ADDRESS($A46,B$47))</f>
+        <v>q</v>
+      </c>
+      <c r="C46" s="21" t="str" cm="1">
+        <f t="array" aca="1" ref="C46" ca="1">INDIRECT(ADDRESS($A46,C$47))</f>
+        <v>w</v>
+      </c>
+      <c r="D46" s="21" t="str" cm="1">
+        <f t="array" aca="1" ref="D46" ca="1">INDIRECT(ADDRESS($A46,D$47))</f>
+        <v>e</v>
+      </c>
+      <c r="E46" s="21" t="str" cm="1">
+        <f t="array" aca="1" ref="E46" ca="1">INDIRECT(ADDRESS($A46,E$47))</f>
+        <v>r</v>
+      </c>
+      <c r="F46" s="21" t="str" cm="1">
+        <f t="array" aca="1" ref="F46" ca="1">INDIRECT(ADDRESS($A46,F$47))</f>
+        <v>t</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A47" s="40" t="s">
+        <v>285</v>
+      </c>
+      <c r="B47" s="42">
+        <v>2</v>
+      </c>
+      <c r="C47" s="42">
+        <v>3</v>
+      </c>
+      <c r="D47" s="42">
+        <v>4</v>
+      </c>
+      <c r="E47" s="42">
+        <v>5</v>
+      </c>
+      <c r="F47" s="42">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B48" s="41" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A49" s="40" t="s">
+        <v>283</v>
+      </c>
+      <c r="B49" s="42">
+        <v>11</v>
+      </c>
+      <c r="C49" s="42">
+        <v>10</v>
+      </c>
+      <c r="D49" s="42">
+        <v>9</v>
+      </c>
+      <c r="E49" s="42">
+        <v>8</v>
+      </c>
+      <c r="F49" s="42">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A50" s="2">
+        <v>31</v>
+      </c>
+      <c r="B50" s="21" t="str" cm="1">
+        <f t="array" aca="1" ref="B50" ca="1">INDIRECT(ADDRESS($A50,B$49))</f>
+        <v>rt</v>
+      </c>
+      <c r="C50" s="21" t="str" cm="1">
+        <f t="array" aca="1" ref="C50" ca="1">INDIRECT(ADDRESS($A50,C$49))</f>
+        <v>,</v>
+      </c>
+      <c r="D50" s="21" t="str" cm="1">
+        <f t="array" aca="1" ref="D50" ca="1">INDIRECT(ADDRESS($A50,D$49))</f>
+        <v>:</v>
+      </c>
+      <c r="E50" s="21" t="str" cm="1">
+        <f t="array" aca="1" ref="E50" ca="1">INDIRECT(ADDRESS($A50,E$49))</f>
+        <v>;</v>
+      </c>
+      <c r="F50" s="21" t="str" cm="1">
+        <f t="array" aca="1" ref="F50" ca="1">INDIRECT(ADDRESS($A50,F$49))</f>
+        <v>"</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A51" s="2">
+        <v>30</v>
+      </c>
+      <c r="B51" s="21" t="str" cm="1">
+        <f t="array" aca="1" ref="B51" ca="1">INDIRECT(ADDRESS($A51,B$49))</f>
+        <v>lt</v>
+      </c>
+      <c r="C51" s="21" t="str" cm="1">
+        <f t="array" aca="1" ref="C51" ca="1">INDIRECT(ADDRESS($A51,C$49))</f>
+        <v>-</v>
+      </c>
+      <c r="D51" s="21" t="str" cm="1">
+        <f t="array" aca="1" ref="D51" ca="1">INDIRECT(ADDRESS($A51,D$49))</f>
+        <v>*</v>
+      </c>
+      <c r="E51" s="21" t="str" cm="1">
+        <f t="array" aca="1" ref="E51" ca="1">INDIRECT(ADDRESS($A51,E$49))</f>
+        <v>&amp;</v>
+      </c>
+      <c r="F51" s="21" t="str" cm="1">
+        <f t="array" aca="1" ref="F51" ca="1">INDIRECT(ADDRESS($A51,F$49))</f>
+        <v>+</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A52" s="2">
+        <v>29</v>
+      </c>
+      <c r="B52" s="21" cm="1">
+        <f t="array" aca="1" ref="B52" ca="1">INDIRECT(ADDRESS($A52,B$49))</f>
+        <v>0</v>
+      </c>
+      <c r="C52" s="21" cm="1">
+        <f t="array" aca="1" ref="C52" ca="1">INDIRECT(ADDRESS($A52,C$49))</f>
+        <v>9</v>
+      </c>
+      <c r="D52" s="21" cm="1">
+        <f t="array" aca="1" ref="D52" ca="1">INDIRECT(ADDRESS($A52,D$49))</f>
+        <v>8</v>
+      </c>
+      <c r="E52" s="21" cm="1">
+        <f t="array" aca="1" ref="E52" ca="1">INDIRECT(ADDRESS($A52,E$49))</f>
+        <v>7</v>
+      </c>
+      <c r="F52" s="21" cm="1">
+        <f t="array" aca="1" ref="F52" ca="1">INDIRECT(ADDRESS($A52,F$49))</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A53" s="2">
+        <v>31</v>
+      </c>
+      <c r="B53" s="21" t="str" cm="1">
+        <f t="array" aca="1" ref="B53" ca="1">INDIRECT(ADDRESS($A53,B$56))</f>
+        <v>alt</v>
+      </c>
+      <c r="C53" s="21" t="str" cm="1">
+        <f t="array" aca="1" ref="C53" ca="1">INDIRECT(ADDRESS($A53,C$56))</f>
+        <v>(</v>
+      </c>
+      <c r="D53" s="21" t="str" cm="1">
+        <f t="array" aca="1" ref="D53" ca="1">INDIRECT(ADDRESS($A53,D$56))</f>
+        <v>)</v>
+      </c>
+      <c r="E53" s="21" t="str" cm="1">
+        <f t="array" aca="1" ref="E53" ca="1">INDIRECT(ADDRESS($A53,E$56))</f>
+        <v>?</v>
+      </c>
+      <c r="F53" s="21" t="str" cm="1">
+        <f t="array" aca="1" ref="F53" ca="1">INDIRECT(ADDRESS($A53,F$56))</f>
+        <v>/</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A54" s="2">
+        <v>30</v>
+      </c>
+      <c r="B54" s="21" t="str" cm="1">
+        <f t="array" aca="1" ref="B54" ca="1">INDIRECT(ADDRESS($A54,B$56))</f>
+        <v>!</v>
+      </c>
+      <c r="C54" s="21" t="str" cm="1">
+        <f t="array" aca="1" ref="C54" ca="1">INDIRECT(ADDRESS($A54,C$56))</f>
+        <v>@</v>
+      </c>
+      <c r="D54" s="21" t="str" cm="1">
+        <f t="array" aca="1" ref="D54" ca="1">INDIRECT(ADDRESS($A54,D$56))</f>
+        <v>#</v>
+      </c>
+      <c r="E54" s="21" t="str" cm="1">
+        <f t="array" aca="1" ref="E54" ca="1">INDIRECT(ADDRESS($A54,E$56))</f>
+        <v>$</v>
+      </c>
+      <c r="F54" s="21" t="str" cm="1">
+        <f t="array" aca="1" ref="F54" ca="1">INDIRECT(ADDRESS($A54,F$56))</f>
+        <v>%</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A55" s="2">
+        <v>29</v>
+      </c>
+      <c r="B55" s="21" cm="1">
+        <f t="array" aca="1" ref="B55" ca="1">INDIRECT(ADDRESS($A55,B$56))</f>
+        <v>1</v>
+      </c>
+      <c r="C55" s="21" cm="1">
+        <f t="array" aca="1" ref="C55" ca="1">INDIRECT(ADDRESS($A55,C$56))</f>
+        <v>2</v>
+      </c>
+      <c r="D55" s="21" cm="1">
+        <f t="array" aca="1" ref="D55" ca="1">INDIRECT(ADDRESS($A55,D$56))</f>
+        <v>3</v>
+      </c>
+      <c r="E55" s="21" cm="1">
+        <f t="array" aca="1" ref="E55" ca="1">INDIRECT(ADDRESS($A55,E$56))</f>
+        <v>4</v>
+      </c>
+      <c r="F55" s="21" cm="1">
+        <f t="array" aca="1" ref="F55" ca="1">INDIRECT(ADDRESS($A55,F$56))</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A56" s="40" t="s">
+        <v>285</v>
+      </c>
+      <c r="B56" s="42">
+        <v>2</v>
+      </c>
+      <c r="C56" s="42">
+        <v>3</v>
+      </c>
+      <c r="D56" s="42">
+        <v>4</v>
+      </c>
+      <c r="E56" s="42">
+        <v>5</v>
+      </c>
+      <c r="F56" s="42">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B58" s="41" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A59" s="40" t="s">
+        <v>283</v>
+      </c>
+      <c r="B59" s="42">
+        <v>11</v>
+      </c>
+      <c r="C59" s="42">
+        <v>10</v>
+      </c>
+      <c r="D59" s="42">
+        <v>9</v>
+      </c>
+      <c r="E59" s="42">
+        <v>8</v>
+      </c>
+      <c r="F59" s="42">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A60" s="2">
+        <v>37</v>
+      </c>
+      <c r="B60" s="21" t="str" cm="1">
+        <f t="array" aca="1" ref="B60" ca="1">INDIRECT(ADDRESS($A60,B$59))</f>
+        <v>dn</v>
+      </c>
+      <c r="C60" s="21" t="str" cm="1">
+        <f t="array" aca="1" ref="C60" ca="1">INDIRECT(ADDRESS($A60,C$59))</f>
+        <v>.</v>
+      </c>
+      <c r="D60" s="21" t="str" cm="1">
+        <f t="array" aca="1" ref="D60" ca="1">INDIRECT(ADDRESS($A60,D$59))</f>
+        <v>M</v>
+      </c>
+      <c r="E60" s="21" t="str" cm="1">
+        <f t="array" aca="1" ref="E60" ca="1">INDIRECT(ADDRESS($A60,E$59))</f>
+        <v>N</v>
+      </c>
+      <c r="F60" s="21" t="str" cm="1">
+        <f t="array" aca="1" ref="F60" ca="1">INDIRECT(ADDRESS($A60,F$59))</f>
+        <v>B</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A61" s="2">
+        <v>36</v>
+      </c>
+      <c r="B61" s="21" t="str" cm="1">
+        <f t="array" aca="1" ref="B61" ca="1">INDIRECT(ADDRESS($A61,B$59))</f>
+        <v>up</v>
+      </c>
+      <c r="C61" s="21" t="str" cm="1">
+        <f t="array" aca="1" ref="C61" ca="1">INDIRECT(ADDRESS($A61,C$59))</f>
+        <v>L</v>
+      </c>
+      <c r="D61" s="21" t="str" cm="1">
+        <f t="array" aca="1" ref="D61" ca="1">INDIRECT(ADDRESS($A61,D$59))</f>
+        <v>K</v>
+      </c>
+      <c r="E61" s="21" t="str" cm="1">
+        <f t="array" aca="1" ref="E61" ca="1">INDIRECT(ADDRESS($A61,E$59))</f>
+        <v>J</v>
+      </c>
+      <c r="F61" s="21" t="str" cm="1">
+        <f t="array" aca="1" ref="F61" ca="1">INDIRECT(ADDRESS($A61,F$59))</f>
+        <v>H</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A62" s="2">
+        <v>35</v>
+      </c>
+      <c r="B62" s="21" t="str" cm="1">
+        <f t="array" aca="1" ref="B62" ca="1">INDIRECT(ADDRESS($A62,B$59))</f>
+        <v>P</v>
+      </c>
+      <c r="C62" s="21" t="str" cm="1">
+        <f t="array" aca="1" ref="C62" ca="1">INDIRECT(ADDRESS($A62,C$59))</f>
+        <v>O</v>
+      </c>
+      <c r="D62" s="21" t="str" cm="1">
+        <f t="array" aca="1" ref="D62" ca="1">INDIRECT(ADDRESS($A62,D$59))</f>
+        <v>I</v>
+      </c>
+      <c r="E62" s="21" t="str" cm="1">
+        <f t="array" aca="1" ref="E62" ca="1">INDIRECT(ADDRESS($A62,E$59))</f>
+        <v>U</v>
+      </c>
+      <c r="F62" s="21" t="str" cm="1">
+        <f t="array" aca="1" ref="F62" ca="1">INDIRECT(ADDRESS($A62,F$59))</f>
+        <v>Y</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A63" s="2">
+        <v>37</v>
+      </c>
+      <c r="B63" s="21" t="str" cm="1">
+        <f t="array" aca="1" ref="B63" ca="1">INDIRECT(ADDRESS($A63,B$66))</f>
+        <v>alt</v>
+      </c>
+      <c r="C63" s="21" t="str" cm="1">
+        <f t="array" aca="1" ref="C63" ca="1">INDIRECT(ADDRESS($A63,C$66))</f>
+        <v>Z</v>
+      </c>
+      <c r="D63" s="21" t="str" cm="1">
+        <f t="array" aca="1" ref="D63" ca="1">INDIRECT(ADDRESS($A63,D$66))</f>
+        <v>X</v>
+      </c>
+      <c r="E63" s="21" t="str" cm="1">
+        <f t="array" aca="1" ref="E63" ca="1">INDIRECT(ADDRESS($A63,E$66))</f>
+        <v>C</v>
+      </c>
+      <c r="F63" s="21" t="str" cm="1">
+        <f t="array" aca="1" ref="F63" ca="1">INDIRECT(ADDRESS($A63,F$66))</f>
+        <v>V</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A64" s="2">
+        <v>36</v>
+      </c>
+      <c r="B64" s="21" t="str" cm="1">
+        <f t="array" aca="1" ref="B64" ca="1">INDIRECT(ADDRESS($A64,B$66))</f>
+        <v>A</v>
+      </c>
+      <c r="C64" s="21" t="str" cm="1">
+        <f t="array" aca="1" ref="C64" ca="1">INDIRECT(ADDRESS($A64,C$66))</f>
+        <v>S</v>
+      </c>
+      <c r="D64" s="21" t="str" cm="1">
+        <f t="array" aca="1" ref="D64" ca="1">INDIRECT(ADDRESS($A64,D$66))</f>
+        <v>D</v>
+      </c>
+      <c r="E64" s="21" t="str" cm="1">
+        <f t="array" aca="1" ref="E64" ca="1">INDIRECT(ADDRESS($A64,E$66))</f>
+        <v>F</v>
+      </c>
+      <c r="F64" s="21" t="str" cm="1">
+        <f t="array" aca="1" ref="F64" ca="1">INDIRECT(ADDRESS($A64,F$66))</f>
+        <v>G</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A65" s="2">
+        <v>35</v>
+      </c>
+      <c r="B65" s="21" t="str" cm="1">
+        <f t="array" aca="1" ref="B65" ca="1">INDIRECT(ADDRESS($A65,B$66))</f>
+        <v>Q</v>
+      </c>
+      <c r="C65" s="21" t="str" cm="1">
+        <f t="array" aca="1" ref="C65" ca="1">INDIRECT(ADDRESS($A65,C$66))</f>
+        <v>W</v>
+      </c>
+      <c r="D65" s="21" t="str" cm="1">
+        <f t="array" aca="1" ref="D65" ca="1">INDIRECT(ADDRESS($A65,D$66))</f>
+        <v>E</v>
+      </c>
+      <c r="E65" s="21" t="str" cm="1">
+        <f t="array" aca="1" ref="E65" ca="1">INDIRECT(ADDRESS($A65,E$66))</f>
+        <v>R</v>
+      </c>
+      <c r="F65" s="21" t="str" cm="1">
+        <f t="array" aca="1" ref="F65" ca="1">INDIRECT(ADDRESS($A65,F$66))</f>
+        <v>T</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A66" s="40" t="s">
+        <v>285</v>
+      </c>
+      <c r="B66" s="42">
+        <v>2</v>
+      </c>
+      <c r="C66" s="42">
+        <v>3</v>
+      </c>
+      <c r="D66" s="42">
+        <v>4</v>
+      </c>
+      <c r="E66" s="42">
+        <v>5</v>
+      </c>
+      <c r="F66" s="42">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="A16:J16"/>
+    <mergeCell ref="L16:U16"/>
+    <mergeCell ref="A1:J1"/>
+    <mergeCell ref="L1:U1"/>
+    <mergeCell ref="A6:J6"/>
+    <mergeCell ref="L6:U6"/>
+    <mergeCell ref="A11:J11"/>
+    <mergeCell ref="L11:U11"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{638AD3B4-41B9-45BA-A561-4767E27251F2}">
   <dimension ref="A1:C13"/>
   <sheetViews>
@@ -4351,7 +7245,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5A7B195-9A8E-4431-8B4B-D79010CDB109}">
   <dimension ref="A1:P5"/>
   <sheetViews>
